--- a/train_log/model_process.xlsx
+++ b/train_log/model_process.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A16D58-9CF9-4092-BC03-1F4E18C7E56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0406-0409" sheetId="1" r:id="rId1"/>
     <sheet name="importance" sheetId="2" r:id="rId2"/>
     <sheet name="importance_rank" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,21 +677,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -702,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -728,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -738,7 +740,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -746,7 +748,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -754,7 +756,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -762,7 +764,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -770,7 +772,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -786,19 +788,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -818,7 +820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -856,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -894,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -932,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -970,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1965,19 +1967,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.9140625" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
